--- a/data/form_堡垒机权限申请.xlsx
+++ b/data/form_堡垒机权限申请.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9540"/>
+    <workbookView windowWidth="11520" windowHeight="9275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>堡垒机权限申请单v1.0</t>
   </si>
@@ -75,13 +75,19 @@
     <t>审批时间</t>
   </si>
   <si>
-    <t>执行者</t>
-  </si>
-  <si>
-    <t>执行结果</t>
-  </si>
-  <si>
-    <t>执行时间</t>
+    <t>step</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>executor</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>executionTime</t>
   </si>
 </sst>
 </file>
@@ -94,7 +100,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,22 +126,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,36 +177,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +199,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -209,6 +215,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -216,6 +230,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -239,30 +260,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,181 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,6 +561,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -592,65 +608,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,103 +667,109 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -769,9 +783,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -784,16 +795,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1146,139 +1154,125 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.4444444444444" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5555555555556" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.4444444444444" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="13.4444444444444" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.5555555555556" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.6666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.4444444444444" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1"/>
     <row r="2" ht="143" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" ht="62" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" ht="62" customHeight="1" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" ht="62" customHeight="1" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" ht="62" customHeight="1" spans="1:6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" ht="62" customHeight="1" spans="1:6">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" ht="62" customHeight="1" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" ht="62" customHeight="1" spans="1:6">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" ht="62" customHeight="1" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="5"/>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1302,14 +1296,47 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.2222222222222" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="32" customHeight="1" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/data/form_堡垒机权限申请.xlsx
+++ b/data/form_堡垒机权限申请.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9275" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>堡垒机权限申请单v1.0</t>
   </si>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>审批时间</t>
+  </si>
+  <si>
+    <t>注：1、【应用连接方式】必须填写大写的SSH或者RDP
+    2、【服务器用途】填写格式要求：所属项目-具体用途，例如：兴达钢帘线项目，用于新版本Cloudiip平台数据接口层与CADE平台层之间进行业务转换。</t>
   </si>
   <si>
     <t>step</t>
@@ -95,12 +99,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,15 +132,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,15 +143,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -169,6 +166,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -177,7 +213,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,16 +227,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,48 +257,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,181 +287,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,6 +537,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -541,11 +561,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,7 +580,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,8 +599,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,21 +619,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -616,10 +627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,16 +639,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,119 +657,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,9 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -803,6 +811,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1154,129 +1168,140 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.4444444444444" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.5555555555556" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.5555555555556" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.6666666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.4444444444444" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="6" max="6" width="16.4444444444444" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1"/>
     <row r="2" ht="143" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" ht="62" customHeight="1" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" ht="62" customHeight="1" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" ht="62" customHeight="1" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" ht="62" customHeight="1" spans="1:6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" ht="62" customHeight="1" spans="1:6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" ht="62" customHeight="1" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" ht="62" customHeight="1" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="3"/>
     </row>
+    <row r="12" ht="48" customHeight="1" spans="1:6">
+      <c r="A12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A12:F12"/>
     <mergeCell ref="A5:B8"/>
   </mergeCells>
   <dataValidations count="1">
@@ -1298,7 +1323,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1314,19 +1339,19 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="32" customHeight="1" spans="1:5">

--- a/data/form_堡垒机权限申请.xlsx
+++ b/data/form_堡垒机权限申请.xlsx
@@ -76,7 +76,7 @@
   </si>
   <si>
     <t>注：1、【应用连接方式】必须填写大写的SSH或者RDP
-    2、【服务器用途】填写格式要求：所属项目-具体用途，例如：兴达钢帘线项目，用于新版本Cloudiip平台数据接口层与CADE平台层之间进行业务转换。</t>
+    2、【服务器用途】填写格式要求：所属项目-具体用途，例如：兴达钢帘线项目-用于新版本Cloudiip平台数据接口层与CADE平台层之间进行业务转换。</t>
   </si>
   <si>
     <t>step</t>
@@ -99,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -137,15 +137,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,7 +235,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,52 +250,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,46 +264,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,25 +287,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,49 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,103 +437,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,16 +523,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +561,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -579,8 +594,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,23 +614,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,10 +627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,16 +639,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,119 +657,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,9 +811,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1171,7 +1168,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1292,11 +1289,11 @@
       <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
